--- a/biology/Médecine/Guillaume_Brun/Guillaume_Brun.xlsx
+++ b/biology/Médecine/Guillaume_Brun/Guillaume_Brun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Guillaume Brun est un médecin et juge du XVe siècle, né à Toulouse en 1430, mort à Montpellier en 1509.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« Guillaume Brun est né à Toulouse en 1430 dans une riche famille de commerçants; il est docteur en droit à 19 ans et fait médecine dans la foulée. Il fait ses premiers pas dans la magistrature à Verdun-sur-Garonne où il est nommé juge en 1452. La charge ne lui fut pas très lourde, même s'il n'est rien de plus compliqué que les limites et l'organisation administrative des « jugeries » de Rivière et de Verdun. Son parcours l'amènera tout à la fois à Toulouse où il fut Capitoul, à Montpellier et à la cour, mais il gardera son domicile à Verdun, malgré les nombreuses pressions. Dans sa jeunesse, il a l'occasion de rencontrer le Dauphin Louis, le futur Louis XI dont il sera l'un des médecins » (Michel Suspène)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Guillaume Brun est né à Toulouse en 1430 dans une riche famille de commerçants; il est docteur en droit à 19 ans et fait médecine dans la foulée. Il fait ses premiers pas dans la magistrature à Verdun-sur-Garonne où il est nommé juge en 1452. La charge ne lui fut pas très lourde, même s'il n'est rien de plus compliqué que les limites et l'organisation administrative des « jugeries » de Rivière et de Verdun. Son parcours l'amènera tout à la fois à Toulouse où il fut Capitoul, à Montpellier et à la cour, mais il gardera son domicile à Verdun, malgré les nombreuses pressions. Dans sa jeunesse, il a l'occasion de rencontrer le Dauphin Louis, le futur Louis XI dont il sera l'un des médecins » (Michel Suspène).
 </t>
         </is>
       </c>
